--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -1,37 +1,837 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyhego.silva\Documents\Python\webscraping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAEB48E-5971-4EC3-85F4-DDF43A7F8637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="263">
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Status Login</t>
+  </si>
+  <si>
+    <t>Último Acesso</t>
+  </si>
+  <si>
+    <t>Visto Última Vez</t>
+  </si>
+  <si>
+    <t>Ademir Neves</t>
+  </si>
+  <si>
+    <t>ademir.neves@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>LOGADO</t>
+  </si>
+  <si>
+    <t>05/06/25 08h26m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h02m20s</t>
+  </si>
+  <si>
+    <t>Ailton Nogueira - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>ailton.nogueira@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 10h50m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h01m17s</t>
+  </si>
+  <si>
+    <t>Alef Manoel</t>
+  </si>
+  <si>
+    <t>alef.manoel@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>DESLOGADO</t>
+  </si>
+  <si>
+    <t>05/06/25 08h47m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h00m00s</t>
+  </si>
+  <si>
+    <t>Alencar Santiago</t>
+  </si>
+  <si>
+    <t>alencar.santiago@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 11h18m</t>
+  </si>
+  <si>
+    <t>05/06/25 12h28m18s</t>
+  </si>
+  <si>
+    <t>Alexandre Martins</t>
+  </si>
+  <si>
+    <t>alexandre.martins@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h11m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h00m32s</t>
+  </si>
+  <si>
+    <t>Aline Amaro - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>aline.amaro@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 07h51m</t>
+  </si>
+  <si>
+    <t>05/06/25 14h58m30s</t>
+  </si>
+  <si>
+    <t>Amilton Silva - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>amilton.silva@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>16/05/25 09h56m</t>
+  </si>
+  <si>
+    <t>16/05/25 10h05m35s</t>
+  </si>
+  <si>
+    <t>Anderson Anunciação - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>anderson.anunciacao@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>04/06/25 09h08m</t>
+  </si>
+  <si>
+    <t>04/06/25 19h04m17s</t>
+  </si>
+  <si>
+    <t>Andre Azevedo</t>
+  </si>
+  <si>
+    <t>contasapagar@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>13/03/24 10h50m</t>
+  </si>
+  <si>
+    <t>13/03/24 12h14m45s</t>
+  </si>
+  <si>
+    <t>Ariel Santana</t>
+  </si>
+  <si>
+    <t>ariel.santana@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 15h01m36s</t>
+  </si>
+  <si>
+    <t>Atendimento - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>chatguru@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>04/06/25 14h56m</t>
+  </si>
+  <si>
+    <t>04/06/25 18h00m22s</t>
+  </si>
+  <si>
+    <t>Bruna Martins - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>bruna.martins@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h14m</t>
+  </si>
+  <si>
+    <t>05/06/25 14h58m46s</t>
+  </si>
+  <si>
+    <t>Camille Simoni - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>camille.simoni@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h20m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h01m58s</t>
+  </si>
+  <si>
+    <t>Carlos Sousa</t>
+  </si>
+  <si>
+    <t>revendas@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>02/06/25 08h15m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h02m14s</t>
+  </si>
+  <si>
+    <t>Cida Silva</t>
+  </si>
+  <si>
+    <t>cida.silva@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h17m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h02m38s</t>
+  </si>
+  <si>
+    <t>Cinthia Souza - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>cinthia.souza@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h09m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h01m48s</t>
+  </si>
+  <si>
+    <t>Claudia Oliveira - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>comercial01@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>22/05/25 07h51m</t>
+  </si>
+  <si>
+    <t>22/05/25 08h22m59s</t>
+  </si>
+  <si>
+    <t>Clayton Oliveira - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>clayton.oliveira@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>02/06/25 23h29m</t>
+  </si>
+  <si>
+    <t>03/06/25 01h04m47s</t>
+  </si>
+  <si>
+    <t>Daniel Pardini</t>
+  </si>
+  <si>
+    <t>daniel.pardini@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>11/11/24 08h52m</t>
+  </si>
+  <si>
+    <t>11/11/24 08h53m47s</t>
+  </si>
+  <si>
+    <t>Dennis Cavalcante - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>dennis.cavalcante@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 10h19m</t>
+  </si>
+  <si>
+    <t>05/06/25 14h58m21s</t>
+  </si>
+  <si>
+    <t>Fabiano Oliveira</t>
+  </si>
+  <si>
+    <t>fabiano.oliveira@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>29/05/25 14h43m</t>
+  </si>
+  <si>
+    <t>29/05/25 20h40m12s</t>
+  </si>
+  <si>
+    <t>Fernando Santiago - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>fernando.santiago@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>03/06/25 11h53m</t>
+  </si>
+  <si>
+    <t>03/06/25 14h06m26s</t>
+  </si>
+  <si>
+    <t>Flávia Santos</t>
+  </si>
+  <si>
+    <t>cobranca@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 09h26m</t>
+  </si>
+  <si>
+    <t>05/06/25 14h59m28s</t>
+  </si>
+  <si>
+    <t>Fábio Ramos</t>
+  </si>
+  <si>
+    <t>fabio.ramos@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>04/06/25 13h17m</t>
+  </si>
+  <si>
+    <t>04/06/25 14h39m47s</t>
+  </si>
+  <si>
+    <t>Gabriel Freitas</t>
+  </si>
+  <si>
+    <t>gabriel.freitas@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h01m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h02m46s</t>
+  </si>
+  <si>
+    <t>Gabriele Bezarra - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>gabriele.bezerra@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h02m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h01m51s</t>
+  </si>
+  <si>
+    <t>Gabriella Oliveira</t>
+  </si>
+  <si>
+    <t>gabriella.oliveira@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>11/04/25 08h30m</t>
+  </si>
+  <si>
+    <t>11/04/25 08h30m24s</t>
+  </si>
+  <si>
+    <t>Grasiele Silva</t>
+  </si>
+  <si>
+    <t>grasiele.silva@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 07h48m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h01m23s</t>
+  </si>
+  <si>
+    <t>Helenicy Cardozo</t>
+  </si>
+  <si>
+    <t>helenicy.cardozo@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>07/05/25 10h19m</t>
+  </si>
+  <si>
+    <t>07/05/25 12h57m06s</t>
+  </si>
+  <si>
+    <t>Ingred Rodrigues Ramos Da Luz</t>
+  </si>
+  <si>
+    <t>ingred.luz@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h38m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h01m57s</t>
+  </si>
+  <si>
+    <t>Itamar Silva - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>itamar.silva@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>30/05/25 09h26m</t>
+  </si>
+  <si>
+    <t>30/05/25 09h32m19s</t>
+  </si>
+  <si>
+    <t>Jair Cruz - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>jair.cruz@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 13h37m</t>
+  </si>
+  <si>
+    <t>05/06/25 14h55m54s</t>
+  </si>
+  <si>
+    <t>Josiane Ferreira</t>
+  </si>
+  <si>
+    <t>josiane.oliveira@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>28/05/25 11h02m</t>
+  </si>
+  <si>
+    <t>29/05/25 18h46m12s</t>
+  </si>
+  <si>
+    <t>José Estanislau - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>jose.estanislau@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>21/05/25 08h26m</t>
+  </si>
+  <si>
+    <t>23/05/25 16h59m47s</t>
+  </si>
+  <si>
+    <t>Karolyne - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>karolyne.quartarollo@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>09/05/25 12h38m</t>
+  </si>
+  <si>
+    <t>09/05/25 15h21m24s</t>
+  </si>
+  <si>
+    <t>Larissa Bueno</t>
+  </si>
+  <si>
+    <t>lojavirtual@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>04/06/25 09h27m</t>
+  </si>
+  <si>
+    <t>04/06/25 14h56m13s</t>
+  </si>
+  <si>
+    <t>Larissa Oliveira</t>
+  </si>
+  <si>
+    <t>larissa.oliveira@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h43m</t>
+  </si>
+  <si>
+    <t>05/06/25 14h58m57s</t>
+  </si>
+  <si>
+    <t>Leonardo Carvalho</t>
+  </si>
+  <si>
+    <t>leonardo.carvalho@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 09h32m</t>
+  </si>
+  <si>
+    <t>05/06/25 09h35m50s</t>
+  </si>
+  <si>
+    <t>Lucas Almeida - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>lucas.almeida@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>17/03/25 15h21m</t>
+  </si>
+  <si>
+    <t>17/03/25 15h22m31s</t>
+  </si>
+  <si>
+    <t>Lucas Santos - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>comercial02@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>17/03/25 08h22m</t>
+  </si>
+  <si>
+    <t>17/03/25 17h43m28s</t>
+  </si>
+  <si>
+    <t>Lucas Souza</t>
+  </si>
+  <si>
+    <t>lucas.souza@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>09/04/25 11h11m</t>
+  </si>
+  <si>
+    <t>09/04/25 19h08m23s</t>
+  </si>
+  <si>
+    <t>Marcos Mathias</t>
+  </si>
+  <si>
+    <t>marcos.mathias@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>29/05/25 15h35m</t>
+  </si>
+  <si>
+    <t>29/05/25 18h14m36s</t>
+  </si>
+  <si>
+    <t>Margarete Alves - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>margarete.alves@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h04m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h01m19s</t>
+  </si>
+  <si>
+    <t>Maria Silva - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>maria.silva@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>12/05/25 08h30m</t>
+  </si>
+  <si>
+    <t>12/05/25 17h35m09s</t>
+  </si>
+  <si>
+    <t>Mirella Gonçalves - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>mirella.goncalves@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 14h23m</t>
+  </si>
+  <si>
+    <t>05/06/25 14h59m27s</t>
+  </si>
+  <si>
+    <t>Paulo Correia</t>
+  </si>
+  <si>
+    <t>paulo.correia@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 15h00m30s</t>
+  </si>
+  <si>
+    <t>Pedro Nassori - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>pedro.nassori@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>14/04/25 08h31m</t>
+  </si>
+  <si>
+    <t>14/04/25 09h33m41s</t>
+  </si>
+  <si>
+    <t>Rafael Nolasco - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>rafael.nolasco@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 12h15m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h00m59s</t>
+  </si>
+  <si>
+    <t>Reinaldo Silva</t>
+  </si>
+  <si>
+    <t>reinaldo.silva@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 09h02m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h02m35s</t>
+  </si>
+  <si>
+    <t>Renan Rodrigues</t>
+  </si>
+  <si>
+    <t>renan.rodrigues@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h32m</t>
+  </si>
+  <si>
+    <t>05/06/25 14h58m36s</t>
+  </si>
+  <si>
+    <t>Roberto Almeida</t>
+  </si>
+  <si>
+    <t>roberto.almeida@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>25/02/25 11h23m</t>
+  </si>
+  <si>
+    <t>25/02/25 13h16m14s</t>
+  </si>
+  <si>
+    <t>Rosane Santos</t>
+  </si>
+  <si>
+    <t>rosane.santos@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 14h46m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h01m28s</t>
+  </si>
+  <si>
+    <t>Rubi Santos</t>
+  </si>
+  <si>
+    <t>rubi.santos@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 09h05m</t>
+  </si>
+  <si>
+    <t>05/06/25 12h16m23s</t>
+  </si>
+  <si>
+    <t>Sergio Francelino</t>
+  </si>
+  <si>
+    <t>sergio.francelino@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>04/06/25 15h04m</t>
+  </si>
+  <si>
+    <t>04/06/25 23h47m00s</t>
+  </si>
+  <si>
+    <t>Shirley Silva</t>
+  </si>
+  <si>
+    <t>rh@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h03m</t>
+  </si>
+  <si>
+    <t>05/06/25 14h59m10s</t>
+  </si>
+  <si>
+    <t>Suporte TI</t>
+  </si>
+  <si>
+    <t>suporteti@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 15h02m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h02m50s</t>
+  </si>
+  <si>
+    <t>Tainah Paz - 7 Oliveiras</t>
+  </si>
+  <si>
+    <t>tainah.paz@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h16m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h02m12s</t>
+  </si>
+  <si>
+    <t>Telma Cardoso</t>
+  </si>
+  <si>
+    <t>telma.cardoso@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h56m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h02m07s</t>
+  </si>
+  <si>
+    <t>Thais Oliveira</t>
+  </si>
+  <si>
+    <t>thais.oliveira@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>28/01/25 18h07m</t>
+  </si>
+  <si>
+    <t>28/01/25 18h32m09s</t>
+  </si>
+  <si>
+    <t>Thiago Bergamini</t>
+  </si>
+  <si>
+    <t>thiago.bergamini@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 15h01m00s</t>
+  </si>
+  <si>
+    <t>Thiago Gomes</t>
+  </si>
+  <si>
+    <t>thiago.gomes@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 15h02m30s</t>
+  </si>
+  <si>
+    <t>Vagner Silva</t>
+  </si>
+  <si>
+    <t>vagner.silva@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>04/06/25 07h57m</t>
+  </si>
+  <si>
+    <t>04/06/25 18h05m26s</t>
+  </si>
+  <si>
+    <t>Vanessa Pestana</t>
+  </si>
+  <si>
+    <t>vanessa.pestana@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/03/25 08h43m</t>
+  </si>
+  <si>
+    <t>17/03/25 08h15m54s</t>
+  </si>
+  <si>
+    <t>Vivian Silva</t>
+  </si>
+  <si>
+    <t>vivian.silva@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 08h00m</t>
+  </si>
+  <si>
+    <t>05/06/25 15h01m15s</t>
+  </si>
+  <si>
+    <t>William Lima</t>
+  </si>
+  <si>
+    <t>willian.lima@7oliveiras.com.br</t>
+  </si>
+  <si>
+    <t>05/06/25 14h34m</t>
+  </si>
+  <si>
+    <t>05/06/25 14h59m09s</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +846,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,71 +1170,1142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>E-mail</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Status Login</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Último Acesso</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Visto Última Vez</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>William Lima</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>willian.lima@7oliveiras.com.br</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>LOGADO</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>05/06/25 14h34m</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>05/06/25 14h34m15s</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>217</v>
+      </c>
+      <c r="B55" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>225</v>
+      </c>
+      <c r="B57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>237</v>
+      </c>
+      <c r="B60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>247</v>
+      </c>
+      <c r="B63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>251</v>
+      </c>
+      <c r="B64" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>253</v>
+      </c>
+      <c r="E64" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>255</v>
+      </c>
+      <c r="B65" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>257</v>
+      </c>
+      <c r="E65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>261</v>
+      </c>
+      <c r="E66" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
